--- a/src/reader/tarifa.xlsx
+++ b/src/reader/tarifa.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">Normal</t>
   </si>
   <si>
-    <t xml:space="preserve">não</t>
+    <t xml:space="preserve">nao</t>
   </si>
   <si>
     <t xml:space="preserve">VERDE</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">APE</t>
   </si>
   <si>
-    <t xml:space="preserve">GERAÇÃO</t>
+    <t xml:space="preserve">GERACAO</t>
   </si>
   <si>
     <t xml:space="preserve">CELPE</t>
@@ -2091,13 +2091,16 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.57"/>
   </cols>
@@ -2345,7 +2348,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
@@ -2674,7 +2677,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>23</v>
@@ -2909,7 +2912,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
@@ -3144,7 +3147,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>23</v>
@@ -3379,7 +3382,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>23</v>
@@ -3617,7 +3620,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>23</v>
@@ -3853,7 +3856,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>23</v>
@@ -4089,7 +4092,7 @@
         <v>16</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>23</v>
@@ -4325,7 +4328,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>23</v>
